--- a/文档/元数据表.xlsx
+++ b/文档/元数据表.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="153">
   <si>
     <t>中文名称</t>
   </si>
@@ -564,6 +564,26 @@
   </si>
   <si>
     <t>数据列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专题描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Varchar2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据列表格式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名，数据ID，本地文件全名；表名，数据ID，本地文件全名</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -721,7 +741,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -778,6 +798,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1452,10 +1475,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -1527,7 +1550,7 @@
         <v>146</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8" t="s">
@@ -1538,29 +1561,41 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
-        <v>111</v>
-      </c>
+      <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="A6" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
@@ -1568,13 +1603,32 @@
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+      <c r="A8" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:G9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
